--- a/BalanceSheet/SO_bal.xlsx
+++ b/BalanceSheet/SO_bal.xlsx
@@ -5618,10 +5618,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B41" s="0" t="n">
+        <v>48492000000.0</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>49976000000.0</v>
@@ -5747,10 +5745,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B42" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B42" s="0" t="n">
+        <v>50262000000.0</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>51041000000.0</v>
